--- a/biology/Botanique/Rubus_hirtus/Rubus_hirtus.xlsx
+++ b/biology/Botanique/Rubus_hirtus/Rubus_hirtus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus hirtus, plus communément appelé ronce hérissée, est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un proche voisin de la ronce commune (Rubus fruticosus). On les distingue par la présence de feuilles velues chez Rubus hirtus.
 Comme beaucoup de ses confrères, cette espèce est polymorphe.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus hirtus possède de nombreuses soies et aiguillons de couleur rouge violacé répartis sur toute la plante. on remarque la présence de glandes sur les turions.
 Les feuilles sont velues, composée de 3 folioles, généralement ovale en cœur.
@@ -546,7 +560,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre cette ronce dans les lieux frais et ombragés des forêts montagneuses.
 En France, on la rencontre dans les Vosges, le Jura, les Alpes, le Massif Central et les Pyrénées. Elle est présente aussi en Allemagne, en Autriche, en Hongrie et dans le Caucase.
